--- a/MR小罗冒管理/小罗冒差评管理/小罗冒差评回复记录整理及其对应总结.xlsx
+++ b/MR小罗冒管理/小罗冒差评管理/小罗冒差评回复记录整理及其对应总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>小罗冒差评处理记录表</t>
   </si>
@@ -46,6 +46,63 @@
   </si>
   <si>
     <t>总结</t>
+  </si>
+  <si>
+    <t>精品肥牛少，没汤，虾饺难吃</t>
+  </si>
+  <si>
+    <t>2019.7.25.16.19</t>
+  </si>
+  <si>
+    <t>精品肥牛 12块钱，我就吃的2块，而且太多油了，汤都没有，虾饺 像吃塑料一样。</t>
+  </si>
+  <si>
+    <t>分量，口味</t>
+  </si>
+  <si>
+    <t>小哥哥，我以为没有给你肥牛呢～_(:::з」∠)_嘤嘤嘤。我们的冒菜汤底，秘制七种不同油料，油多是正常的。虾饺也是精挑细选多个正规平台订货试吃之后，才上架的呢～ 很抱歉让你没有愉快的享用！我们会尽力做的更好～欢迎下次品尝！</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>肥牛分量太少，虾饺口味太差</t>
+  </si>
+  <si>
+    <t>虾饺下架，肥牛定量四片</t>
+  </si>
+  <si>
+    <t>不好吃……</t>
+  </si>
+  <si>
+    <t>2019.7.28.10.42</t>
+  </si>
+  <si>
+    <t>口味</t>
+  </si>
+  <si>
+    <t>系统回复方案</t>
+  </si>
+  <si>
+    <t>难吃，白汤，无味，备注</t>
+  </si>
+  <si>
+    <t>2019.7.30.20.16</t>
+  </si>
+  <si>
+    <t>真的很难吃，最难吃的冒菜，我第一次差评，首先，我备注不要葱，加了，我还能接受，但是简直就是白汤煮出来的，一点味道没有，味道不怎么样，海鲜菇就只有几根</t>
+  </si>
+  <si>
+    <t>口味，色泽，备注</t>
+  </si>
+  <si>
+    <t>系统回复信息</t>
+  </si>
+  <si>
+    <t>1.备注未仔细看.2.红汤油汤用料少，3.海鲜菇量太少，</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -53,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -67,6 +124,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -75,7 +145,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,22 +226,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,92 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,32 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +579,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -552,177 +626,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,17 +789,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,368 +1173,425 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="5" width="18.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1111111111111" customWidth="1"/>
     <col min="6" max="7" width="17.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="17.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8888888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="43" customHeight="1" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="144" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
